--- a/data/2022 conference survey.xlsx
+++ b/data/2022 conference survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drives compartilhados\System Dynamics Society\Conference\Past Conferences\2022 Frankfurt Conference\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corwincheung/Programming/Systems Dynamics Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759525C4-FDF6-43E3-BEE5-B7C7BB614569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717CAE5-B1AA-4E45-B24B-29888664BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C7883F71-1C43-4B39-A261-89A0478ADCBD}"/>
+    <workbookView xWindow="14760" yWindow="500" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{C7883F71-1C43-4B39-A261-89A0478ADCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 raw data" sheetId="1" r:id="rId1"/>
@@ -3351,7 +3351,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3696,7 +3696,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4035,7 +4035,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4364,7 +4364,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4700,7 +4700,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5036,7 +5036,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5376,7 +5376,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5705,7 +5705,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6041,7 +6041,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6380,7 +6380,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6719,7 +6719,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7118,7 +7118,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7440,7 +7440,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7755,7 +7755,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8091,7 +8091,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8431,7 +8431,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -18035,7 +18035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18337,9 +18337,9 @@
       <selection activeCell="N1" sqref="N1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="254" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="170" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="307.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="321" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>123</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>151</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>161</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="268" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>173</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="294.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="295" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>187</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>193</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>205</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>218</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>224</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>227</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="254" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>234</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="384" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="399" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>249</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>258</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>261</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>274</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="198" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>276</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="358.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" ht="360" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>282</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>293</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="231" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="240" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>299</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>310</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>317</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>328</v>
       </c>
@@ -21956,7 +21956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>332</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>335</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>338</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>341</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>348</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>354</v>
       </c>
@@ -22672,7 +22672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>364</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>370</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" ht="198" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>373</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>386</v>
       </c>
@@ -23172,7 +23172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>394</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>396</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>411</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>424</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>432</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>437</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="384" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" ht="386" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>440</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>448</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>458</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>465</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>474</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>480</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>494</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>501</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="231" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" ht="240" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>507</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>519</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>533</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="212" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>539</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>546</v>
       </c>
@@ -25557,7 +25557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>549</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>560</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>563</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>570</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>579</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>587</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>594</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>600</v>
       </c>
@@ -26551,7 +26551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>610</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" ht="282" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>617</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>625</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>630</v>
       </c>
@@ -27043,7 +27043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>638</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>645</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>652</v>
       </c>
@@ -27406,7 +27406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>655</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>657</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" ht="226" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>660</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>670</v>
       </c>
@@ -27890,7 +27890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" ht="142" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>678</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="358.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" ht="321" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>685</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" ht="268" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>694</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" ht="142" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>704</v>
       </c>
@@ -28394,7 +28394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" ht="282" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>712</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>723</v>
       </c>
@@ -28648,7 +28648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>729</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" ht="170" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>739</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="371.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" ht="373" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>747</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" ht="198" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>756</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" ht="184" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>769</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>775</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>778</v>
       </c>
@@ -29529,7 +29529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>782</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="333" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" ht="334" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>786</v>
       </c>
@@ -29771,7 +29771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" ht="198" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44569.208252314813</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44569.215081018519</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44569.382013888891</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44569.382118055553</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" ht="212" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44569.382175925923</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" ht="198" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44569.394849537035</v>
       </c>
@@ -30521,7 +30521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44569.397534722222</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="409.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44569.419872685183</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44569.428796296299</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44569.432893518519</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44569.43577546296</v>
       </c>
@@ -31122,7 +31122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="294.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" ht="295" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>44569.437696759262</v>
       </c>
@@ -31249,7 +31249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" ht="212" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44569.444351851853</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" ht="142" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44569.478738425925</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>44569.484849537039</v>
       </c>
@@ -31640,7 +31640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" ht="184" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44569.489710648151</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44569.515474537038</v>
       </c>
@@ -31890,7 +31890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44569.569351851853</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="231" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" ht="240" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44569.594467592593</v>
       </c>
@@ -32158,7 +32158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44569.657812500001</v>
       </c>
@@ -32279,7 +32279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" ht="142" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44569.703217592592</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>44569.756967592592</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44569.955023148148</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" ht="156" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44600.042118055557</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44600.055648148147</v>
       </c>
@@ -32882,7 +32882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44600.114166666666</v>
       </c>
@@ -33003,7 +33003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44600.163078703707</v>
       </c>
@@ -33120,7 +33120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44600.18855324074</v>
       </c>
@@ -33241,7 +33241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>44600.237881944442</v>
       </c>
@@ -33362,7 +33362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44600.368784722225</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" ht="114" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44600.53565972222</v>
       </c>
@@ -33610,7 +33610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44600.623877314814</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="294.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" ht="321" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44600.64534722222</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" ht="142" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44628.219108796293</v>
       </c>
@@ -33989,7 +33989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="231" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" ht="254" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44628.472303240742</v>
       </c>
@@ -34110,7 +34110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="243.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" ht="240" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44628.488263888888</v>
       </c>
@@ -34251,12 +34251,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -34264,7 +34264,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -34288,12 +34288,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -34301,7 +34301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -34309,7 +34309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>631</v>
       </c>
@@ -34317,7 +34317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -34325,7 +34325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -34333,7 +34333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1014</v>
       </c>
@@ -34341,7 +34341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1015</v>
       </c>
@@ -34349,7 +34349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1016</v>
       </c>
@@ -34357,7 +34357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1017</v>
       </c>
@@ -34365,7 +34365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1018</v>
       </c>
@@ -34373,7 +34373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1019</v>
       </c>
@@ -34381,12 +34381,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -34394,7 +34394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -34402,7 +34402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -34418,7 +34418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -34426,7 +34426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -34434,7 +34434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -34442,12 +34442,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -34455,7 +34455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -34463,7 +34463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -34479,7 +34479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -34487,7 +34487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -34495,7 +34495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -34503,12 +34503,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -34532,7 +34532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -34540,7 +34540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -34548,7 +34548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -34564,12 +34564,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -34585,7 +34585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -34601,7 +34601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -34609,7 +34609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -34617,7 +34617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -34625,12 +34625,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -34646,7 +34646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -34654,7 +34654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -34662,7 +34662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -34686,13 +34686,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>716</v>
       </c>
@@ -34700,7 +34700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -34708,7 +34708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -34716,7 +34716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -34732,7 +34732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -34740,7 +34740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -34748,7 +34748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -34756,13 +34756,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>716</v>
       </c>
@@ -34770,7 +34770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -34778,7 +34778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -34794,7 +34794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5</v>
       </c>
@@ -34802,7 +34802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -34818,7 +34818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -34826,13 +34826,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>716</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -34848,7 +34848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -34856,7 +34856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -34864,7 +34864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -34880,7 +34880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -34888,7 +34888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -34896,13 +34896,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>716</v>
       </c>
@@ -34910,7 +34910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -34918,7 +34918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -34942,7 +34942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -34966,13 +34966,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>716</v>
       </c>
@@ -34980,7 +34980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -34988,7 +34988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -34996,7 +34996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>45</v>
       </c>
@@ -35004,7 +35004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -35012,7 +35012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6</v>
       </c>
@@ -35020,7 +35020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -35028,7 +35028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -35036,13 +35036,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>716</v>
       </c>
@@ -35050,7 +35050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -35058,7 +35058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -35074,7 +35074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5</v>
       </c>
@@ -35082,7 +35082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -35090,7 +35090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>46</v>
       </c>
@@ -35106,13 +35106,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>716</v>
       </c>
@@ -35120,7 +35120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -35128,7 +35128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3</v>
       </c>
@@ -35136,7 +35136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -35144,7 +35144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6</v>
       </c>
@@ -35160,7 +35160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -35168,7 +35168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>46</v>
       </c>
@@ -35176,13 +35176,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>716</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3</v>
       </c>
@@ -35206,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -35214,7 +35214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>5</v>
       </c>
@@ -35222,7 +35222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>6</v>
       </c>
@@ -35230,7 +35230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>46</v>
       </c>
@@ -35246,13 +35246,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>716</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -35268,7 +35268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3</v>
       </c>
@@ -35276,7 +35276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -35284,7 +35284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -35292,7 +35292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>6</v>
       </c>
@@ -35300,7 +35300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>44</v>
       </c>
@@ -35308,7 +35308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -35316,13 +35316,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>716</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3</v>
       </c>
@@ -35346,7 +35346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -35354,7 +35354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>5</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6</v>
       </c>
@@ -35370,7 +35370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>44</v>
       </c>
@@ -35378,7 +35378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -35386,12 +35386,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -35399,7 +35399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3</v>
       </c>
@@ -35415,7 +35415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -35423,7 +35423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -35431,7 +35431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6</v>
       </c>
@@ -35439,7 +35439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -35447,12 +35447,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>243</v>
       </c>
@@ -35460,7 +35460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -35468,7 +35468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>47</v>
       </c>
@@ -35476,7 +35476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -35484,7 +35484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>102</v>
       </c>
@@ -35492,7 +35492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>141</v>
       </c>
@@ -35500,7 +35500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>84</v>
       </c>
@@ -35508,12 +35508,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -35521,7 +35521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>103</v>
       </c>
@@ -35537,7 +35537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>85</v>
       </c>
@@ -35545,12 +35545,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>166</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>49</v>
       </c>
@@ -35566,7 +35566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>70</v>
       </c>
@@ -35574,12 +35574,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>50</v>
       </c>
@@ -35587,7 +35587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>71</v>
       </c>
@@ -35595,7 +35595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>142</v>
       </c>
@@ -35603,7 +35603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -35611,12 +35611,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -35624,7 +35624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>229</v>
       </c>
@@ -35632,7 +35632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>320</v>
       </c>
@@ -35640,7 +35640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1020</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1021</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>360</v>
       </c>
@@ -35664,7 +35664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1023</v>
       </c>
@@ -35672,7 +35672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1024</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1025</v>
       </c>
@@ -35688,7 +35688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1026</v>
       </c>
@@ -35696,12 +35696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>54</v>
       </c>
@@ -35709,7 +35709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>55</v>
       </c>
@@ -35717,7 +35717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>30</v>
       </c>
@@ -35725,7 +35725,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>55</v>
       </c>
@@ -35741,12 +35741,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>89</v>
       </c>
@@ -35754,7 +35754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>190</v>
       </c>
@@ -35762,7 +35762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>107</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>710</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>537</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -35794,7 +35794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>881</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>76</v>
       </c>
@@ -35810,7 +35810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>130</v>
       </c>
@@ -35818,7 +35818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1043</v>
       </c>
@@ -35826,12 +35826,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1027</v>
       </c>
@@ -35839,7 +35839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1028</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>203</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>275</v>
       </c>
@@ -35863,7 +35863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1029</v>
       </c>
@@ -35871,7 +35871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>384</v>
       </c>
@@ -35879,7 +35879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>569</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1030</v>
       </c>
@@ -35895,7 +35895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>334</v>
       </c>
@@ -35903,7 +35903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1031</v>
       </c>
@@ -35911,7 +35911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1032</v>
       </c>
@@ -35919,7 +35919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1033</v>
       </c>
@@ -35927,7 +35927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1034</v>
       </c>
@@ -35935,7 +35935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1035</v>
       </c>
@@ -35943,7 +35943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1044</v>
       </c>
@@ -35951,7 +35951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1045</v>
       </c>
@@ -35959,7 +35959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1046</v>
       </c>
@@ -35967,7 +35967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1047</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1048</v>
       </c>
@@ -35983,7 +35983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1049</v>
       </c>
@@ -35991,12 +35991,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -36004,7 +36004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>58</v>
       </c>
@@ -36020,7 +36020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>326</v>
       </c>
@@ -36028,7 +36028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1036</v>
       </c>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -36044,7 +36044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>148</v>
       </c>
@@ -36052,12 +36052,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>59</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>92</v>
       </c>
@@ -36073,7 +36073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1037</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>204</v>
       </c>
@@ -36089,12 +36089,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1038</v>
       </c>
@@ -36102,7 +36102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>60</v>
       </c>
@@ -36110,7 +36110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>184</v>
       </c>
@@ -36118,7 +36118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>221</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>93</v>
       </c>
@@ -36134,7 +36134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>132</v>
       </c>
@@ -36142,12 +36142,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>898</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>121</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1039</v>
       </c>
@@ -36171,7 +36171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1040</v>
       </c>
@@ -36179,7 +36179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1041</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1042</v>
       </c>
@@ -36195,12 +36195,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>54</v>
       </c>
@@ -36208,7 +36208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>55</v>
       </c>
@@ -36216,12 +36216,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>54</v>
       </c>
@@ -36229,7 +36229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>55</v>
       </c>
@@ -36246,21 +36246,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714406F7-5D74-480E-A487-74F97A3E584A}">
   <dimension ref="A1:Q295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -36268,7 +36266,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -36276,7 +36274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -36284,7 +36282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -36292,12 +36290,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1014</v>
       </c>
@@ -36305,7 +36303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1017</v>
       </c>
@@ -36313,7 +36311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1018</v>
       </c>
@@ -36321,7 +36319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1019</v>
       </c>
@@ -36329,7 +36327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1016</v>
       </c>
@@ -36337,7 +36335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1015</v>
       </c>
@@ -36345,7 +36343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>631</v>
       </c>
@@ -36353,7 +36351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>595</v>
       </c>
@@ -36361,7 +36359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>318</v>
       </c>
@@ -36369,7 +36367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -36377,7 +36375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -36385,12 +36383,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -36398,7 +36396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -36406,7 +36404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -36414,7 +36412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -36422,7 +36420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -36430,7 +36428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -36438,7 +36436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -36446,12 +36444,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -36459,7 +36457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -36467,7 +36465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -36475,7 +36473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -36483,7 +36481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -36491,7 +36489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -36499,7 +36497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -36507,12 +36505,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -36520,7 +36518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -36528,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -36536,7 +36534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -36544,7 +36542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -36552,7 +36550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -36560,7 +36558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -36568,12 +36566,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -36581,7 +36579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -36589,7 +36587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -36597,7 +36595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -36605,7 +36603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -36613,7 +36611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -36621,7 +36619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -36629,12 +36627,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -36642,7 +36640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -36650,7 +36648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -36658,7 +36656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -36666,7 +36664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -36674,7 +36672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -36682,7 +36680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -36690,13 +36688,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -36704,7 +36702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -36712,7 +36710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -36720,7 +36718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -36728,7 +36726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5</v>
       </c>
@@ -36736,7 +36734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6</v>
       </c>
@@ -36744,7 +36742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -36752,7 +36750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -36760,13 +36758,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -36774,7 +36772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -36782,7 +36780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -36790,7 +36788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -36798,7 +36796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5</v>
       </c>
@@ -36806,7 +36804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
@@ -36814,7 +36812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7</v>
       </c>
@@ -36822,7 +36820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -36830,13 +36828,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -36844,7 +36842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -36852,7 +36850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -36860,7 +36858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -36868,7 +36866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5</v>
       </c>
@@ -36876,7 +36874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6</v>
       </c>
@@ -36884,7 +36882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7</v>
       </c>
@@ -36892,7 +36890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -36900,13 +36898,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -36914,7 +36912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
@@ -36922,7 +36920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -36930,7 +36928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -36938,7 +36936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -36946,7 +36944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6</v>
       </c>
@@ -36954,7 +36952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7</v>
       </c>
@@ -36962,7 +36960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>46</v>
       </c>
@@ -36970,13 +36968,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -36984,7 +36982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -36992,7 +36990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -37000,7 +36998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
@@ -37008,7 +37006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5</v>
       </c>
@@ -37016,7 +37014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
@@ -37024,7 +37022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -37032,7 +37030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -37040,13 +37038,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -37054,7 +37052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -37062,7 +37060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
@@ -37070,7 +37068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
@@ -37078,7 +37076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5</v>
       </c>
@@ -37086,7 +37084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -37094,7 +37092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7</v>
       </c>
@@ -37102,7 +37100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -37110,13 +37108,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -37124,7 +37122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -37132,7 +37130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
@@ -37140,7 +37138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4</v>
       </c>
@@ -37148,7 +37146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5</v>
       </c>
@@ -37156,7 +37154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6</v>
       </c>
@@ -37164,7 +37162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -37172,7 +37170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -37180,13 +37178,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -37194,7 +37192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -37202,7 +37200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
@@ -37210,7 +37208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4</v>
       </c>
@@ -37218,7 +37216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>5</v>
       </c>
@@ -37226,7 +37224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6</v>
       </c>
@@ -37234,7 +37232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -37250,13 +37248,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -37264,7 +37262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -37272,7 +37270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3</v>
       </c>
@@ -37280,7 +37278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4</v>
       </c>
@@ -37288,7 +37286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>5</v>
       </c>
@@ -37296,7 +37294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>6</v>
       </c>
@@ -37304,7 +37302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -37312,7 +37310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -37320,13 +37318,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -37334,7 +37332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2</v>
       </c>
@@ -37342,7 +37340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3</v>
       </c>
@@ -37350,7 +37348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4</v>
       </c>
@@ -37358,7 +37356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>5</v>
       </c>
@@ -37366,7 +37364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6</v>
       </c>
@@ -37374,7 +37372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>7</v>
       </c>
@@ -37382,7 +37380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -37390,12 +37388,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -37403,7 +37401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -37411,7 +37409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3</v>
       </c>
@@ -37419,7 +37417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4</v>
       </c>
@@ -37427,7 +37425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5</v>
       </c>
@@ -37435,7 +37433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>6</v>
       </c>
@@ -37443,7 +37441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -37451,12 +37449,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>243</v>
       </c>
@@ -37464,7 +37462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>68</v>
       </c>
@@ -37472,7 +37470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>47</v>
       </c>
@@ -37480,7 +37478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -37488,7 +37486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>102</v>
       </c>
@@ -37496,7 +37494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -37504,7 +37502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>84</v>
       </c>
@@ -37512,12 +37510,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>69</v>
       </c>
@@ -37525,7 +37523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>48</v>
       </c>
@@ -37533,7 +37531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -37541,7 +37539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>85</v>
       </c>
@@ -37549,12 +37547,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>70</v>
       </c>
@@ -37562,7 +37560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -37570,7 +37568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>166</v>
       </c>
@@ -37578,12 +37576,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>50</v>
       </c>
@@ -37591,7 +37589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>71</v>
       </c>
@@ -37599,7 +37597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -37607,7 +37605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>142</v>
       </c>
@@ -37615,12 +37613,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>360</v>
       </c>
@@ -37628,7 +37626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1024</v>
       </c>
@@ -37636,7 +37634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1025</v>
       </c>
@@ -37644,7 +37642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1026</v>
       </c>
@@ -37652,7 +37650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1020</v>
       </c>
@@ -37660,7 +37658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1021</v>
       </c>
@@ -37668,7 +37666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1023</v>
       </c>
@@ -37679,7 +37677,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -37687,7 +37685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>320</v>
       </c>
@@ -37695,7 +37693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -37703,12 +37701,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>54</v>
       </c>
@@ -37716,7 +37714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>55</v>
       </c>
@@ -37724,12 +37722,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>54</v>
       </c>
@@ -37737,7 +37735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>55</v>
       </c>
@@ -37745,12 +37743,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1043</v>
       </c>
@@ -37758,7 +37756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>881</v>
       </c>
@@ -37766,7 +37764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>537</v>
       </c>
@@ -37774,7 +37772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>710</v>
       </c>
@@ -37782,7 +37780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -37790,7 +37788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>107</v>
       </c>
@@ -37798,7 +37796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>76</v>
       </c>
@@ -37806,7 +37804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>89</v>
       </c>
@@ -37814,7 +37812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>190</v>
       </c>
@@ -37822,7 +37820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>119</v>
       </c>
@@ -37830,12 +37828,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1044</v>
       </c>
@@ -37843,7 +37841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1046</v>
       </c>
@@ -37851,7 +37849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1047</v>
       </c>
@@ -37859,7 +37857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1048</v>
       </c>
@@ -37867,7 +37865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1049</v>
       </c>
@@ -37875,7 +37873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1045</v>
       </c>
@@ -37883,7 +37881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1030</v>
       </c>
@@ -37891,7 +37889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1034</v>
       </c>
@@ -37899,7 +37897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1029</v>
       </c>
@@ -37907,7 +37905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1031</v>
       </c>
@@ -37915,7 +37913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1028</v>
       </c>
@@ -37923,7 +37921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>275</v>
       </c>
@@ -37931,7 +37929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1032</v>
       </c>
@@ -37939,7 +37937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1035</v>
       </c>
@@ -37947,7 +37945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1027</v>
       </c>
@@ -37955,7 +37953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>384</v>
       </c>
@@ -37963,7 +37961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>334</v>
       </c>
@@ -37971,7 +37969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>203</v>
       </c>
@@ -37979,7 +37977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>569</v>
       </c>
@@ -37987,7 +37985,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1033</v>
       </c>
@@ -37995,12 +37993,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>58</v>
       </c>
@@ -38008,7 +38006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -38016,7 +38014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>220</v>
       </c>
@@ -38024,7 +38022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>158</v>
       </c>
@@ -38032,7 +38030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>326</v>
       </c>
@@ -38040,7 +38038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>148</v>
       </c>
@@ -38048,7 +38046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1036</v>
       </c>
@@ -38056,12 +38054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>59</v>
       </c>
@@ -38069,7 +38067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>92</v>
       </c>
@@ -38077,7 +38075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1037</v>
       </c>
@@ -38085,7 +38083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>204</v>
       </c>
@@ -38093,12 +38091,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1038</v>
       </c>
@@ -38106,7 +38104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>60</v>
       </c>
@@ -38114,7 +38112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>184</v>
       </c>
@@ -38122,7 +38120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>221</v>
       </c>
@@ -38130,7 +38128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>93</v>
       </c>
@@ -38138,7 +38136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -38146,12 +38144,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1042</v>
       </c>
@@ -38159,7 +38157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1040</v>
       </c>
@@ -38167,7 +38165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>898</v>
       </c>
@@ -38175,7 +38173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1039</v>
       </c>
@@ -38183,7 +38181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1041</v>
       </c>
@@ -38191,7 +38189,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>121</v>
       </c>
@@ -38199,12 +38197,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>54</v>
       </c>
@@ -38212,7 +38210,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>55</v>
       </c>
@@ -38220,12 +38218,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>54</v>
       </c>
@@ -38233,7 +38231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>55</v>
       </c>

--- a/data/2022 conference survey.xlsx
+++ b/data/2022 conference survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corwincheung/Programming/Systems Dynamics Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717CAE5-B1AA-4E45-B24B-29888664BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88CFDE-3D6A-664E-BA36-9E15DE2FB3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="500" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{C7883F71-1C43-4B39-A261-89A0478ADCBD}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="30860" windowHeight="18740" xr2:uid="{C7883F71-1C43-4B39-A261-89A0478ADCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 raw data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="1056">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3245,6 +3245,21 @@
   </si>
   <si>
     <t>See also SURVEY ANALYSIS: https://docs.google.com/document/d/1hGyODd949cGlDY9Un07-G5FXb1zjfzKC-VFdQjn3zs0?authuser=office%40systemdynamics.org&amp;usp=drive_fs</t>
+  </si>
+  <si>
+    <t>Additional comments 2</t>
+  </si>
+  <si>
+    <t>Additional comments 3</t>
+  </si>
+  <si>
+    <t>Additional comments 4</t>
+  </si>
+  <si>
+    <t>Additional comments 5</t>
+  </si>
+  <si>
+    <t>Additional comments 6</t>
   </si>
 </sst>
 </file>
@@ -18333,8 +18348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F4F27F-DA90-4865-A57C-C64BDEDD3DE4}">
   <dimension ref="A1:AS128"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18359,25 +18374,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>1052</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>1053</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>1054</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -18416,7 +18431,7 @@
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>4</v>
+        <v>1055</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>21</v>
@@ -36246,7 +36261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714406F7-5D74-480E-A487-74F97A3E584A}">
   <dimension ref="A1:Q295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/2022 conference survey.xlsx
+++ b/data/2022 conference survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corwincheung/Programming/Systems Dynamics Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88CFDE-3D6A-664E-BA36-9E15DE2FB3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3B8166-45C5-C648-BA9D-35A46DE7C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="500" windowWidth="30860" windowHeight="18740" xr2:uid="{C7883F71-1C43-4B39-A261-89A0478ADCBD}"/>
   </bookViews>
@@ -18349,7 +18349,7 @@
   <dimension ref="A1:AS128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
